--- a/MHRSLite_UI/wwwroot/Excels/Hospitals.xlsx
+++ b/MHRSLite_UI/wwwroot/Excels/Hospitals.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="243">
   <si>
     <t>HospitalName</t>
   </si>
@@ -47,117 +47,78 @@
     <t>PhoneNumber</t>
   </si>
   <si>
-    <t>Adana Ağız Ve Diş Sağlığı Merkezi</t>
-  </si>
-  <si>
     <t>100.Yıl Mah. 85341 Sk No:2 Çukurova/adana</t>
   </si>
   <si>
     <t>adana.adsm@saglik.gov.tr</t>
   </si>
   <si>
-    <t>Adana Ceyhan Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Ceyhan Devlet Hastanesi, Ulus Mh., 01950 Ceyhan/adana</t>
   </si>
   <si>
     <t>adanadhs1@saglik.gov.tr</t>
   </si>
   <si>
-    <t>Adana Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Adana Devlet Hastanesi H.Ömer Sabancı Cd. (Eski Numune Hastanesi) 01140 Seyhan Adana\nSemt Polikliniği Eski Adana Devlet Hastanesi Karataş Yolu Üzeri 01160 Yüreğir Adana\n\n</t>
   </si>
   <si>
     <t>adanadhs11@saglik.gov.tr</t>
   </si>
   <si>
-    <t>Adana Dr.Ekrem Tok Ruh Sağlığı Ve Hastalıkları Hastanesi</t>
-  </si>
-  <si>
     <t>Belediye Evleri Mahallesi Turgut Özal Bulvarı  No : 230  Kurttepe /  Çukurova /adana pk-01330</t>
   </si>
   <si>
     <t>adanarshh1@saglik.gov.tr</t>
   </si>
   <si>
-    <t>Adana Kadın Doğum Ve Çocuk Hastalıkları Hastanesi</t>
-  </si>
-  <si>
     <t>Ana Bina:bakımyurdu Cad. No:145  Seyhan/adana   Tel:0322 3654950\nEk Bina: Erdal Acet Cad. Döşeme Mah. Marsa Yağ Fabrikası Karşısı Seyhan/adana  Tel:0322 4316001</t>
   </si>
   <si>
     <t>adanadcb1@saglik.gov.tr</t>
   </si>
   <si>
-    <t>Adana Karaisalı Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Karaisalı Devlet Hastanesi</t>
   </si>
   <si>
     <t>adanadhs@hotmail.com</t>
   </si>
   <si>
-    <t>Adana Kozan Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Kozan Devlet Hastanesi</t>
   </si>
   <si>
     <t>kozan@kozan.gov.tr</t>
   </si>
   <si>
-    <t>Adana Numune Eğitim Ve Araştırma  Hastanesi</t>
-  </si>
-  <si>
     <t>Serinevler Mah. Ege Bağtur Bulvarı Üzeri  Yüreğir / Adana</t>
   </si>
   <si>
     <t>adanaeah1@saglik.gov.tr</t>
   </si>
   <si>
-    <t>Adana Pozantı 80.Yıl Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>E90 Eski Ankara Yolu Üzeri Karayolu Pozantı/adana</t>
   </si>
   <si>
     <t>adanadhs5@saglik.gov.tr</t>
   </si>
   <si>
-    <t>Adana Tufanbeyli Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Cumhuriyet Mahallesi Hastane Caddesi\nTufanbeyli/adana</t>
   </si>
   <si>
     <t>adanadhs9@saglik.gov.tr</t>
   </si>
   <si>
-    <t>Adana Çukurova Dr.Aşkım Tüfekçi Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Yeni Baraj Mah.Hacı Ömer Sabancı Cad.01330 Seyhan/adana</t>
   </si>
   <si>
     <t>cukurovadh@hotmail.com</t>
   </si>
   <si>
-    <t>Adana İmamoğlu Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Hürriyet Mahlesi 700.Sokak</t>
   </si>
   <si>
     <t>adanadhs2@saglik.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul -(Avrupa)-  Avcılar Murat Kölük Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Üniversite Mahallesi Yeni Yuvam Sokak No:4 Avcılar / İstanbul</t>
   </si>
   <si>
@@ -170,45 +131,30 @@
     <t>28.73</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Ataşehir Ağız Ve Diş Sağlığı Merkezi</t>
-  </si>
-  <si>
     <t>Ali Nihat Tarlan Caddesi Kartal Sokak No:11 İçerenköy Ataşehir</t>
   </si>
   <si>
     <t>atasehiradsm@kadikoyagizdis.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Ataşehir- Fatih Sultan Mehmet Eğitim Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>E-5 Karayolu Üzeri İçerenköy Ataşehir/istanbul</t>
   </si>
   <si>
     <t>fsm.saglikisleri@gmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Beykoz Ağız Ve Diş Sağlığı Merkezi</t>
-  </si>
-  <si>
     <t>Çubuklu Mh. Vatan Cd. No-26 İstanbul/beykoz</t>
   </si>
   <si>
     <t>bilgi@beykozadsm.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Beykoz Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Saip Molla Cad.Kısayol Sok. No:1 Beykozistanbul</t>
   </si>
   <si>
     <t>istanbuldhs4@saglik.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Derviş Ali -Hesna Ceylan Ağız Ve Diş Sağlığı Merkezi</t>
-  </si>
-  <si>
     <t>Ahmet Yesevi Mah. Mücahit Cad. No : 48 Sultanbeyli / İstanbul</t>
   </si>
   <si>
@@ -218,36 +164,24 @@
     <t>15.45</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Dr.Siyami Ersek Göğüs Kalp Ve Damar Cerrahisi Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>Tıbbiye Cad No:13 Haydarpaşa Üsküdar İstanbul</t>
   </si>
   <si>
     <t>istanbuleah20@saglik.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Kadıköy- Erenköy Fizik Tedavi Ve Rehabilitasyon Hastanesi</t>
-  </si>
-  <si>
     <t>Şemsettin Günaltay Cad./sultan sok. no:14, erenköy/istanbul</t>
   </si>
   <si>
     <t>istanbulfth1@saglik.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Kadıköy- Erenköy Ruh Ve Sinir Hastalıkları Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t xml:space="preserve">19 mAyıs Mah.Sinanercan Cad.No:29 Kazasker/kadıköy/istanbul </t>
   </si>
   <si>
     <t>gknecla@gmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Kadıköy- Göztepe Ağız Ve Diş Sağlığı Merkezi</t>
-  </si>
-  <si>
     <t>Fahrettin Kerim Gökay Cad. No:161/8 Göztepe Kadıköy/istanbul</t>
   </si>
   <si>
@@ -257,117 +191,78 @@
     <t>40.59</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Kartal Ağız Ve Diş Sağlığı Merkezi</t>
-  </si>
-  <si>
     <t>Barbaros Hayrettin Paşa Cad. Orta Mah. No: 66 Soğanlık-kartal / İstanbul P.K.:34888</t>
   </si>
   <si>
     <t>kartaladsm@gmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Kartal- Dr.Lütfi Kırdar Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>E-5 Karayolu Mevkii Şemsi Denizer Cad. 34865</t>
   </si>
   <si>
     <t>istanbuleah17@sbkeah.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Kartal- Koşuyolu Yüksek İhtisas Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>Cevizli Kavşağı Denizer Caddesi No 2 Kartal, İstanbul</t>
   </si>
   <si>
     <t>kosuyolu@kosuyolu.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Kartal- Yakacık Doğum Ve Çocuk Hastalıkları Hastanesi</t>
-  </si>
-  <si>
     <t>Çarşı Mah. Soğanlık Cad. No:17 - Yakacık / Kartal - İstanbul</t>
   </si>
   <si>
     <t>yakacikposta@gmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Kartal- Yavuz Selim  Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>İstasyon Cad. Doğan Sok. No:11 Kartal/istanbul</t>
   </si>
   <si>
     <t>istanbuldhs11@saglik.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Maltepe Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Altayçeşme Mah. Çam Sok. No:26-28 34843 Maltepe / İstanbul</t>
   </si>
   <si>
     <t>info@maltepedevlethastanesi.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Meslek Hastalıkları Hastanesi</t>
-  </si>
-  <si>
     <t>Başıbüyük Mahallesi Atatürk Caddesi Başıbüyük/maltepe - İstanbul</t>
   </si>
   <si>
     <t>info@imhh.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Pendik Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Batı Mahallesi Dr.Orhan Maltepe Cd. N:17 Pendik İstanbul</t>
   </si>
   <si>
     <t>mhrs@pendikdevlethastanesi.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Sancaktepe Ağız Ve Diş Sağlığı Merkezi</t>
-  </si>
-  <si>
     <t>Eyüp Sultan Mahallesi, Müminler Cad. No:1 Sancaktepe - İstanbul</t>
   </si>
   <si>
     <t>info@sancaktepeadsm.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Süreyyapaşa Göğüs Hastalıkları Ve Göğüs Cerrahisi Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>Başıbüyük Mah. Maltepe İstanbul</t>
   </si>
   <si>
     <t>info@sureyyapasa.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- T.C.Sağlık Bakanlığı-marmara Üniversitesi Pendik Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>Mimar Sinan Cad. No:41 Üst Kaynarca Fevzi Çakmak Mah. Pendik/istanbul</t>
   </si>
   <si>
     <t>mhrs.marmara@marmaraeah.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Tacirler Eğitim Vakfı Sultanbeyli Devlet Hastanesi</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Mehmet Akif Ersoy Mah. Cami Cad. No:3 Sultanbeyli-istanbul</t>
   </si>
   <si>
     <t>info@sultanbeylidevlethast.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Tuzla Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>İçmeler Mah. Enise Sok No:5 Tuzla / İst</t>
   </si>
   <si>
@@ -380,9 +275,6 @@
     <t>40.5</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Çekmeköy Ağız Ve Diş Sağlığı Merkezi</t>
-  </si>
-  <si>
     <t>Soğukpınar Mah.Ihlamur Cad.No:40 Çekmeköy-taşdelen/istanbul</t>
   </si>
   <si>
@@ -392,373 +284,475 @@
     <t>29.23</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Ümraniye Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>Elmalı Kent Mh Adem Yavuz Cd No:1  Ümraniye/istanbul</t>
   </si>
   <si>
     <t>bilgi@ueh.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Üsküdar Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Barbaros Mahallesi Veysipaşa Sokak No:14 Koşuyolu Üsküdar İstanbul(Anabina (Eski Polis Hastanesi)) Kalfaçeşme Sokak No:1 Koşuyolu Üsküdar İstanbul (Validebağ(Eski Öğretmenler Hastanesi)) Halk Caddesi Sunar İş Hanı No:37 Üsküdar İstanbul (Doğancılar Semt Polikliniği)</t>
   </si>
   <si>
     <t>info@uskudarhastanesi.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Üsküdar- Haydarpaşa Numune Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>Tıbbıye Cad.No:40 Üsküdar/istanbul</t>
   </si>
   <si>
     <t>hnhmhrs@gmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Üsküdar- Zeynep Kamil Kadın Ve Çocuk Hastalıkları Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>Zeynep Kamil Mahallesi, Dr.Burhanettin Üstünel Sokak, No:3-4 34668 Üsküdar-istanbul</t>
   </si>
   <si>
     <t>info@zeynepkamil.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- Şile Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Atatürk Cad Balibey Mah.No :1 Şile/istanbul</t>
   </si>
   <si>
     <t>silehastane@gmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Arnavutköy Devlet Hastanesi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Merkez Mahallesi  Fatih Caddesi No:3 Arnavutköy / İstanbul  </t>
   </si>
   <si>
     <t>istanbuldhs33@saglik.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Avcılar Ağız Ve Diş Sağlığı Merkezi</t>
-  </si>
-  <si>
     <t>Kirazlı Cad. Gökler Sokak No:60/2 Avcılar /istanbul</t>
   </si>
   <si>
     <t>avcilaradsm@gmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Bahçelievler Ağız Ve Diş Sağlığı Merkezi</t>
-  </si>
-  <si>
     <t>Adnan Kahveci Bulvarı Eski Londra Asfaltı No:141/2 Bahçelievler/ist</t>
   </si>
   <si>
     <t>mhrs@bahcelievleragizdis.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Bahçelievler Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Bahçelievler</t>
   </si>
   <si>
     <t>fatihhrzcu@gmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Bahçelievler- Fizik Tedavi Ve Rehabilitasyon Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>Kocasinan Merkez Mahallesi Karadeniz Caddesi No:48 Bahçelievler İstanbul 34192</t>
   </si>
   <si>
     <t>bilgi@istanbulftr.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Bakırköy -Lepra Deri Ve Zührevi Hastalıkları Hastanesi</t>
-  </si>
-  <si>
     <t>Zuhuratbaba Mah.Tevfik Sağlam Caddesi No:26/4 Akıl Hastanesi Arkası Bakırköy - İstanbul</t>
   </si>
   <si>
     <t>lepraderi@gmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Bakırköy Prof.Dr.Mazhar Osman Ruh Sağ. Ve Sinir Hast.  Eğt. Ve Araş. Hastanesi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zuhratbaba Mah Dr. Teyfik Sağlam Cad No : 25/2  Sağlık Bakanlığı Türkiye Kamu Hastaneleri Kurumu  İstanbul Bakırköy Bölgesi Kamu Hastaneleri Birliği Genel Sekreterliği Bakırköy Prof. Dr. Mazhar Osman Ruh Sağlığı Ve Sinir Hastalıkları Eğitim Ve Araştırma Hastanesi </t>
   </si>
   <si>
     <t>istanbuleah5@saglik.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Bakırköy- Deri Ve Tenasül Hastalıkları Hastanesi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zuhuratbaba Mahallesi, Doktor Tevfik Sağlam Caddesi, No.26 Bakırköy - İstanbul </t>
   </si>
   <si>
     <t>istanbuldzh1@saglik.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Bakırköy- Dr.Sadi Konuk Eğitim Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tevfik Sağlam Cad. No:11 Zuhuratbaba İstanbul 34147 Türkiye </t>
   </si>
   <si>
     <t>bilgi@beah.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Bayrampaşa Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>İsmetpaşa Mah. Kenar Sok. No:22 Bayrampaşa - İstanbul</t>
   </si>
   <si>
     <t>bdhpersonel@gmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Bağcılar Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Merkez Mahallesi Mimar Sinan Caddesi 6. Sokak  Bağcılar / İstanbul </t>
   </si>
   <si>
     <t xml:space="preserve"> info@beh.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Başakşehir Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Başakşehir 4.Etap Yunus Emre Caddesi İett Son Durak  Başakşehir Devlet Hastanesi</t>
   </si>
   <si>
     <t>personel@saglik.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Beşiktaş- Sait Çiftçi Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Barbaros Bulvarı No:109 Beşiktaş-istanbul</t>
   </si>
   <si>
     <t>bscdh.mhrs@gmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Büyükçekmece Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>1)Sahil(Acil) Binası: Atatürk Mah. Mustafa K. Paşa Cad. Hülya Koçyiğit Sok No: 1 Büyükçekmece - İstanbul 2)Gürpınar (Ek) Poliklinik Binası: Pınartepe Mah. Belediye Cad.5/a daire 1 büyükçekmece istanbul (eski gürpınar belediye binası) 3)eski ssk binası-dizdariye mah. gülboyu cad.büyükçekmece/istanbul</t>
   </si>
   <si>
     <t>bilgiislem@buyukcekmecedh.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Dr.Necmi Ayanoğlu Silivri Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Yeni Mahalle Efrahim Öztürk Sokak No:1 Silivri/istanbul</t>
   </si>
   <si>
     <t>bilgiislem@silivridh.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Esenler Kadın Doğum Ve Çocuk Hastalıkları Hastanesi</t>
-  </si>
-  <si>
     <t>Havaalanı Mah.Taşocağı Cad.No 19 34220 Esenler/istanbul</t>
   </si>
   <si>
     <t>esenlerkdch@gmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Esenyurt Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Fatih Mahallesi 19 Mayıs Bulvarı No:8 Esenyurt/istanbul</t>
   </si>
   <si>
     <t>esenyurtdevlethastanesi@gmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Fatih- İstanbul Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>Kasap İlyas Mah. Org. Abdurrahman Nafiz Gürman Cd. Pk: 34098  Fatih-istanbul</t>
   </si>
   <si>
     <t>iletisim@istanbuleah.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Fatih-haseki Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Millet Cd. Aksaray / Fatih -İstanbul  </t>
   </si>
   <si>
     <t xml:space="preserve">hasekikalite@hasekihastanesi.gov.tr </t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Gaziosmanpaşa Taksim Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>Karayolları Mahallesi 616. Sokak Gaziosmanpaşa İstanbul</t>
   </si>
   <si>
     <t>a@a.com</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Güngören Ağız Ve Diş Sağlığı Merkezi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Merkez Mahallesi Ünlü Sokak No:6 Köyiçi-güngören/ İstanbul </t>
   </si>
   <si>
     <t>mhrsgungoren@gmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Kağıthane Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Sanayi Mah. Şahinler Sk. No:23 P.K.: 34416 Kağıthane/istanbul</t>
   </si>
   <si>
     <t>hasan_muti_53@hotmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Kağıthane- İl Özel İdaresi Ağız Ve Diş Hastalıkları Hastanesi</t>
-  </si>
-  <si>
     <t>Darülaceze Cad. Gürsel Mahallesi Kağıthane / İstanbul</t>
   </si>
   <si>
     <t>istanbuldis1@saglik.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Küçükçekmece- Kanuni Sultan Süleyman Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>Altınşehir, Turgut Özal Cd. No:1 34303 Halkalı / Küçükçekmece / İstanbul</t>
   </si>
   <si>
     <t>mhrs@kanunieah.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Mehmet Akif Ersoy Göğüs Kalp Ve Damar Cerrahisi Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>İstasyon Mah.Turgut Özal Bulvarı No:11 Küçükçekmece- İstanbul</t>
   </si>
   <si>
     <t>info@imaeh.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Prof.Dr.N.Reşat Belger Beyoğlu Göz Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>Bereketzade Cami Sokak No:2 Beyoğlu/istanbul (Galata Kulesinin 50 M Asagisinda)</t>
   </si>
   <si>
     <t>emreyilmaz@beyoglugoz.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Sarıyer- Metin Sabancı Baltalimanı Kemik Hastalıkları Eğitim Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>Rumelihisarı Cad.No:62 Baltalimanı Sarıyer İstanbul</t>
   </si>
   <si>
     <t>info@baltalimani.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Sarıyer- İsmail Akgün Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Dursun Fakih Sok. No:1 Sarıyer-istanbul</t>
   </si>
   <si>
     <t>istanbuldhs13@saglik.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Sarıyer- İstinye Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>İstinye Caddesi No:98 34465 İstinye - Sarıyer - İstanbul</t>
   </si>
   <si>
     <t>bim@idh.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Sultangazi- Lütfiye Nuri Burat Devlet Hastanesi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lütfiye Nuri Burat Devlet Hastanesi 50.Yıl Mah. 2106 Sokak No:8 Sultangazi / İstanbul </t>
   </si>
   <si>
     <t>istanbuldhs8@saglik.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Süleymaniye Kadın Doğum Ve Çocuk Hastalıkları Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Telsiz Mah. Balıklı Kazlıçeşme Yolu No:1 Zeytinburnu / İstanbul </t>
   </si>
   <si>
     <t>istanbuleah8@saglik.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Topçular Ağız Ve Diş Sağlığı Merkezi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abdi İpekçi Caddesi Bayrampaşa Rami </t>
   </si>
   <si>
     <t>topcularadsm1@gmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Yedikule Göğüs Hastalıkları Ve Göğüs Cerrahisi Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Belgrad Kapı Yolu No:1 Zeytinburnu / </t>
   </si>
   <si>
     <t>bashekimlik@yedikulegogus.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Çatalca- İlyas Çokay Devlet Hastanesi</t>
-  </si>
-  <si>
     <t>Ferhat Paşa Mahallesi,İstanbul Caddesi Çatalca/istanbul</t>
   </si>
   <si>
     <t>catalcadh@gmail.com</t>
   </si>
   <si>
-    <t>İstanbul- (Avrupa)- Şişli Etfal Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t xml:space="preserve">19 mAyıs Mh., 34360 Şişli/istanbul  </t>
   </si>
   <si>
     <t>mhrs@sislietfal.gov.tr</t>
   </si>
   <si>
-    <t>İstanbul- (Anadolu)- S.B. İstanbul Medeniyet Üniversitesi Göztepe Eğitim Ve Araştırma Hastanesi</t>
-  </si>
-  <si>
     <t>İstanbul Medeniyet Üniversitesi  Göztepe Eğitim Ve Araştırma Hastanesi Prof. Fahrettin Gökay Cad. Kadıköy / İstanbul</t>
   </si>
   <si>
     <t>bilgi@sbgoztepehastanesi.gov.tr</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> İmamoğlu Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t>Avcılar Murat Kölük Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t>Ataşehir Ağız Ve Diş Sağlığı Merkezi</t>
+  </si>
+  <si>
+    <t>Ataşehir- Fatih Sultan Mehmet Eğitim Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t>Beykoz Ağız Ve Diş Sağlığı Merkezi</t>
+  </si>
+  <si>
+    <t>Beykoz Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t>Derviş Ali -Hesna Ceylan Ağız Ve Diş Sağlığı Merkezi</t>
+  </si>
+  <si>
+    <t>Dr.Siyami Ersek Göğüs Kalp Ve Damar Cerrahisi Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t>Kadıköy- Erenköy Fizik Tedavi Ve Rehabilitasyon Hastanesi</t>
+  </si>
+  <si>
+    <t>Kadıköy- Erenköy Ruh Ve Sinir Hastalıkları Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t>Kadıköy- Göztepe Ağız Ve Diş Sağlığı Merkezi</t>
+  </si>
+  <si>
+    <t>Kartal Ağız Ve Diş Sağlığı Merkezi</t>
+  </si>
+  <si>
+    <t>Kartal- Dr.Lütfi Kırdar Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t>Kartal- Koşuyolu Yüksek İhtisas Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t>Kartal- Yakacık Doğum Ve Çocuk Hastalıkları Hastanesi</t>
+  </si>
+  <si>
+    <t>Kartal- Yavuz Selim  Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t>Maltepe Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t>Meslek Hastalıkları Hastanesi</t>
+  </si>
+  <si>
+    <t>Pendik Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t>Sancaktepe Ağız Ve Diş Sağlığı Merkezi</t>
+  </si>
+  <si>
+    <t>Süreyyapaşa Göğüs Hastalıkları Ve Göğüs Cerrahisi Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t>T.C.Sağlık Bakanlığı-marmara Üniversitesi Pendik Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t>Tacirler Eğitim Vakfı Sultanbeyli Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t>Tuzla Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t>Çekmeköy Ağız Ve Diş Sağlığı Merkezi</t>
+  </si>
+  <si>
+    <t>Ümraniye Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t>Üsküdar Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t>Üsküdar- Haydarpaşa Numune Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t>Üsküdar- Zeynep Kamil Kadın Ve Çocuk Hastalıkları Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t>Şile Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t>S.B. İstanbul Medeniyet Üniversitesi Göztepe Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arnavutköy Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avcılar Ağız Ve Diş Sağlığı Merkezi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bahçelievler Ağız Ve Diş Sağlığı Merkezi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bahçelievler Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bahçelievler- Fizik Tedavi Ve Rehabilitasyon Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bakırköy -Lepra Deri Ve Zührevi Hastalıkları Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bakırköy Prof.Dr.Mazhar Osman Ruh Sağ. Ve Sinir Hast.  Eğt. Ve Araş. Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bakırköy- Deri Ve Tenasül Hastalıkları Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bakırköy- Dr.Sadi Konuk Eğitim Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bayrampaşa Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bağcılar Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Başakşehir Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beşiktaş- Sait Çiftçi Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Büyükçekmece Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dr.Necmi Ayanoğlu Silivri Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Esenler Kadın Doğum Ve Çocuk Hastalıkları Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Esenyurt Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fatih- İstanbul Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fatih-haseki Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gaziosmanpaşa Taksim Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Güngören Ağız Ve Diş Sağlığı Merkezi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kağıthane Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kağıthane- İl Özel İdaresi Ağız Ve Diş Hastalıkları Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Küçükçekmece- Kanuni Sultan Süleyman Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mehmet Akif Ersoy Göğüs Kalp Ve Damar Cerrahisi Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prof.Dr.N.Reşat Belger Beyoğlu Göz Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sarıyer- Metin Sabancı Baltalimanı Kemik Hastalıkları Eğitim Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sarıyer- İsmail Akgün Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sarıyer- İstinye Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sultangazi- Lütfiye Nuri Burat Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Süleymaniye Kadın Doğum Ve Çocuk Hastalıkları Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Topçular Ağız Ve Diş Sağlığı Merkezi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yedikule Göğüs Hastalıkları Ve Göğüs Cerrahisi Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Çatalca- İlyas Çokay Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Şişli Etfal Eğitim Ve Araştırma Hastanesi</t>
+  </si>
+  <si>
+    <t>Ağız Ve Diş Sağlığı Merkezi</t>
+  </si>
+  <si>
+    <t>Ceyhan Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t>Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t>Dr.Ekrem Tok Ruh Sağlığı Ve Hastalıkları Hastanesi</t>
+  </si>
+  <si>
+    <t>Kadın Doğum Ve Çocuk Hastalıkları Hastanesi</t>
+  </si>
+  <si>
+    <t>Numune Eğitim Ve Araştırma  Hastanesi</t>
+  </si>
+  <si>
+    <t>Pozantı 80.Yıl Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t>Tufanbeyli Devlet Hastanesi</t>
+  </si>
+  <si>
+    <t>Çukurova Dr.Aşkım Tüfekçi Devlet Hastanesi</t>
   </si>
 </sst>
 </file>
@@ -1081,15 +1075,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="84.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" customWidth="1"/>
-    <col min="3" max="3" width="75.109375" customWidth="1"/>
+    <col min="1" max="1" width="52.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" customWidth="1"/>
     <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -1120,16 +1114,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="1">
         <v>370024</v>
@@ -1143,16 +1137,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>235</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>3702709</v>
@@ -1166,16 +1160,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
         <v>36985157</v>
@@ -1189,16 +1183,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1">
         <v>37055656</v>
@@ -1212,16 +1206,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="B6">
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1">
         <v>36842556</v>
@@ -1235,16 +1229,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1">
         <v>37254704</v>
@@ -1258,16 +1252,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>37464188</v>
@@ -1281,16 +1275,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>239</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1">
         <v>37019722</v>
@@ -1304,16 +1298,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1">
         <v>37460636</v>
@@ -1327,16 +1321,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="B11">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1">
         <v>3781643</v>
@@ -1350,16 +1344,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1">
         <v>3702135</v>
@@ -1373,16 +1367,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1">
         <v>37252346</v>
@@ -1396,22 +1390,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="B14">
         <v>451</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>2124129000</v>
@@ -1419,16 +1413,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="B15">
         <v>450</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1">
         <v>40966774</v>
@@ -1442,16 +1436,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="B16">
         <v>450</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E16" s="1">
         <v>40970596</v>
@@ -1465,16 +1459,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="B17">
         <v>458</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1">
         <v>4109709</v>
@@ -1488,16 +1482,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="B18">
         <v>458</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E18" s="1">
         <v>41117126</v>
@@ -1511,22 +1505,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="B19">
         <v>479</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G19">
         <v>2165924111</v>
@@ -1534,16 +1528,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="B20">
         <v>485</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E20" s="1">
         <v>41004288</v>
@@ -1557,16 +1551,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="B21">
         <v>470</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1">
         <v>40978344</v>
@@ -1580,16 +1574,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="B22">
         <v>470</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E22" s="1">
         <v>40980675</v>
@@ -1603,22 +1597,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="B23">
         <v>470</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2">
         <v>44649</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="G23">
         <v>2165659191</v>
@@ -1626,16 +1620,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="B24">
         <v>472</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1">
         <v>40983074</v>
@@ -1649,16 +1643,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="B25">
         <v>472</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E25" s="1">
         <v>4091948</v>
@@ -1672,16 +1666,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>181</v>
       </c>
       <c r="B26">
         <v>472</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1">
         <v>40911827</v>
@@ -1695,16 +1689,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="B27">
         <v>472</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="E27" s="1">
         <v>40921036</v>
@@ -1718,16 +1712,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="B28">
         <v>472</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E28" s="1">
         <v>40891846</v>
@@ -1741,16 +1735,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>184</v>
       </c>
       <c r="B29">
         <v>474</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E29" s="1">
         <v>40937267</v>
@@ -1764,16 +1758,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="B30">
         <v>474</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="E30" s="1">
         <v>40952938</v>
@@ -1787,16 +1781,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="B31">
         <v>475</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="E31" s="1">
         <v>40877438</v>
@@ -1810,16 +1804,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>187</v>
       </c>
       <c r="B32">
         <v>476</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="E32" s="1">
         <v>41007885</v>
@@ -1833,16 +1827,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c r="B33">
         <v>474</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1">
         <v>40953976</v>
@@ -1856,16 +1850,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="B34">
         <v>475</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E34" s="1">
         <v>40979122</v>
@@ -1879,16 +1873,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="B35">
         <v>479</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="E35" s="1">
         <v>4096606</v>
@@ -1902,22 +1896,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>191</v>
       </c>
       <c r="B36">
         <v>483</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="F36" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="G36">
         <v>2164940952</v>
@@ -1925,19 +1919,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>192</v>
       </c>
       <c r="B37">
         <v>463</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="F37" s="1">
         <v>41022</v>
@@ -1948,16 +1942,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="B38">
         <v>484</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="E38" s="1">
         <v>41032654</v>
@@ -1971,16 +1965,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>194</v>
       </c>
       <c r="B39">
         <v>485</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="E39" s="1">
         <v>41025497</v>
@@ -1994,16 +1988,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="B40">
         <v>485</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1">
         <v>41009308</v>
@@ -2017,16 +2011,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="B41">
         <v>485</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="E41" s="1">
         <v>41014874</v>
@@ -2040,16 +2034,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="B42">
         <v>481</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="E42" s="1">
         <v>29616653</v>
@@ -2063,16 +2057,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="B43">
         <v>449</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="E43" s="1">
         <v>28747116</v>
@@ -2086,16 +2080,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="B44">
         <v>451</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="E44" s="1">
         <v>28716389</v>
@@ -2109,16 +2103,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="B45">
         <v>453</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="E45" s="1">
         <v>4099959</v>
@@ -2132,22 +2126,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>202</v>
       </c>
       <c r="B46">
         <v>453</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G46">
         <v>2124967000</v>
@@ -2155,16 +2149,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="B47">
         <v>453</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="E47" s="1">
         <v>2884444</v>
@@ -2178,16 +2172,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="B48">
         <v>454</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="D48" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="E48" s="1">
         <v>40989532</v>
@@ -2201,16 +2195,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="B49">
         <v>454</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="E49" s="1">
         <v>40990654</v>
@@ -2224,16 +2218,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="B50">
         <v>454</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="E50" s="1">
         <v>41009308</v>
@@ -2247,16 +2241,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="B51">
         <v>454</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="E51" s="1">
         <v>40993954</v>
@@ -2270,16 +2264,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="B52">
         <v>456</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="E52" s="1">
         <v>4104188</v>
@@ -2293,16 +2287,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="B53">
         <v>452</v>
       </c>
       <c r="C53" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="E53" s="1">
         <v>410311</v>
@@ -2316,16 +2310,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="B54">
         <v>455</v>
       </c>
       <c r="C54" t="s">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="E54" s="1">
         <v>41055798</v>
@@ -2339,22 +2333,22 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="B55">
         <v>457</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="E55" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="G55">
         <v>2123816700</v>
@@ -2362,16 +2356,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="B56">
         <v>461</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="E56" s="1">
         <v>4101297</v>
@@ -2385,16 +2379,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="B57">
         <v>478</v>
       </c>
       <c r="C57" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="D57" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="E57" s="1">
         <v>41078186</v>
@@ -2408,16 +2402,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="B58">
         <v>464</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="D58" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="E58">
         <v>41</v>
@@ -2431,16 +2425,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="B59">
         <v>465</v>
       </c>
       <c r="C59" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="D59" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="E59" s="1">
         <v>4104259</v>
@@ -2454,16 +2448,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="B60">
         <v>467</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="D60" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="E60" s="1">
         <v>41008663</v>
@@ -2477,16 +2471,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="B61">
         <v>467</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>132</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="E61" s="1">
         <v>41010185</v>
@@ -2500,16 +2494,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B62">
         <v>468</v>
       </c>
       <c r="C62" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="D62" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="E62" s="1">
         <v>41036118</v>
@@ -2523,16 +2517,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B63">
         <v>469</v>
       </c>
       <c r="C63" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="D63" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="E63" s="1">
         <v>41002056</v>
@@ -2546,16 +2540,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B64">
         <v>471</v>
       </c>
       <c r="C64" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="D64" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="E64" s="1">
         <v>2900144</v>
@@ -2569,16 +2563,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B65">
         <v>471</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="D65" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="E65" s="1">
         <v>41067123</v>
@@ -2592,16 +2586,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="B66">
         <v>473</v>
       </c>
       <c r="C66" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="D66" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="E66" s="1">
         <v>41055553</v>
@@ -2615,16 +2609,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B67">
         <v>473</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="D67" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="E67" s="1">
         <v>4102194</v>
@@ -2638,16 +2632,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B68">
         <v>460</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>146</v>
       </c>
       <c r="D68" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="E68" s="1">
         <v>41028866</v>
@@ -2661,16 +2655,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B69">
         <v>477</v>
       </c>
       <c r="C69" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
       <c r="E69" s="1">
         <v>41097076</v>
@@ -2684,16 +2678,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B70">
         <v>477</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="D70" t="s">
-        <v>220</v>
+        <v>151</v>
       </c>
       <c r="E70" s="1">
         <v>4117245</v>
@@ -2707,16 +2701,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B71">
         <v>477</v>
       </c>
       <c r="C71" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="D71" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="E71" s="1">
         <v>41119194</v>
@@ -2730,16 +2724,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B72">
         <v>480</v>
       </c>
       <c r="C72" t="s">
-        <v>225</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="E72" s="1">
         <v>41096752</v>
@@ -2753,16 +2747,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B73">
         <v>486</v>
       </c>
       <c r="C73" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="D73" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="E73" s="1">
         <v>40999077</v>
@@ -2782,10 +2776,10 @@
         <v>456</v>
       </c>
       <c r="C74" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="D74" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="E74">
         <v>1745</v>
@@ -2799,16 +2793,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B75">
         <v>486</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>160</v>
       </c>
       <c r="D75" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="E75" s="1">
         <v>4100361</v>
@@ -2822,16 +2816,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B76">
         <v>462</v>
       </c>
       <c r="C76" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="D76" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="E76" s="1">
         <v>41138977</v>
@@ -2845,16 +2839,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B77">
         <v>482</v>
       </c>
       <c r="C77" t="s">
-        <v>240</v>
+        <v>164</v>
       </c>
       <c r="D77" t="s">
-        <v>241</v>
+        <v>165</v>
       </c>
       <c r="E77" s="1">
         <v>41058044</v>
@@ -2868,16 +2862,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>242</v>
+        <v>198</v>
       </c>
       <c r="B78">
         <v>470</v>
       </c>
       <c r="C78" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="D78" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="E78" s="1">
         <v>29057781</v>
